--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E9F2D7-D4C8-495C-B51D-98281EF1A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3296F899-E46E-4B4F-B5E3-DDC99D8E2651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6235C5D7-9C7E-431B-BD25-3DFBDFEBCB59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>nombre</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>efe</t>
+  </si>
+  <si>
+    <t>cfd</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fdf</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>ddd</t>
   </si>
 </sst>
 </file>
@@ -403,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B59E494-BCBF-43BE-8336-F30BEF84D67D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,6 +448,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
